--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,28 +46,40 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>months</t>
@@ -76,73 +88,79 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
     <t>sent</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>lid</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
+    <t>machine</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>machine</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>work</t>
@@ -151,21 +169,33 @@
     <t>hold</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>put</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -178,12 +208,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -196,16 +226,16 @@
     <t>salad</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>highly</t>
   </si>
   <si>
     <t>ze</t>
-  </si>
-  <si>
-    <t>highly</t>
   </si>
   <si>
     <t>great</t>
@@ -572,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K3">
         <v>0.9354838709677419</v>
@@ -712,16 +742,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.9296875</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9595959595959596</v>
+        <v>0.96</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.8792569659442725</v>
+        <v>0.8854489164086687</v>
       </c>
       <c r="L5">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M5">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9576271186440678</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,16 +842,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.8610169491525423</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9245283018867925</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8508474576271187</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9135135135135135</v>
+        <v>0.925</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.7792207792207793</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.7748917748917749</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.7236842105263158</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.863013698630137</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.6301369863013698</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8592592592592593</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C12">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.5257142857142857</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L12">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.839622641509434</v>
+        <v>0.8767123287671232</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.492063492063492</v>
+        <v>0.5314285714285715</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.4320987654320987</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.3693693693693694</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.813953488372093</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="C16">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.3258426966292135</v>
+        <v>0.3772070626003211</v>
       </c>
       <c r="L16">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="M16">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>840</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8076923076923077</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.126027397260274</v>
+        <v>0.1452054794520548</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>638</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7972972972972973</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C19">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1443,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7887323943661971</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1461,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1469,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7816091954022989</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1487,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1495,13 +1525,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.75</v>
+        <v>0.7897435897435897</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1513,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1521,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7371794871794872</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C23">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1539,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1547,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7307692307692307</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1565,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1573,13 +1603,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7272727272727273</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1591,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1599,13 +1629,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.725</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1617,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1625,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6991150442477876</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D27">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1643,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1651,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6538461538461539</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C28">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1669,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1677,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6407766990291263</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="C29">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1695,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1703,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6060606060606061</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1721,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1729,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5632183908045977</v>
+        <v>0.61</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1747,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1755,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.54</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1773,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1781,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5251396648044693</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="C33">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1799,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1807,13 +1837,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4845360824742268</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="C34">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1825,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1833,13 +1863,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4605263157894737</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1851,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1859,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.43</v>
+        <v>0.5363128491620112</v>
       </c>
       <c r="C36">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D36">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1877,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1885,13 +1915,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4126984126984127</v>
+        <v>0.47</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1903,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1911,13 +1941,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2587601078167116</v>
+        <v>0.4682539682539683</v>
       </c>
       <c r="C38">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1929,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>275</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1937,13 +1967,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2137931034482759</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1955,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>114</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1963,13 +1993,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1714285714285714</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1981,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>174</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1989,13 +2019,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1564625850340136</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2007,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>248</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2015,13 +2045,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1237458193979933</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2033,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>262</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2041,13 +2071,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.108843537414966</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2059,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>655</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2067,25 +2097,285 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.04432855280312908</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C44">
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>106</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.2344827586206897</v>
+      </c>
+      <c r="C45">
         <v>34</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>34</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>733</v>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>63</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.2134831460674157</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1346938775510204</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+      <c r="D51">
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1070234113712375</v>
+      </c>
+      <c r="C52">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.09778357235984354</v>
+      </c>
+      <c r="C53">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>75</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.08292682926829269</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
